--- a/biology/Zoologie/Dexia_(diptère)/Dexia_(diptère).xlsx
+++ b/biology/Zoologie/Dexia_(diptère)/Dexia_(diptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dexia_(dipt%C3%A8re)</t>
+          <t>Dexia_(diptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dexia est un genre d'insectes diptères brachycères de la famille des tachinidés, des mouches dont les larves sont parasites d'insectes. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dexia_(dipt%C3%A8re)</t>
+          <t>Dexia_(diptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Animal Diversity Web                                (7 mars 2018)[1] : (à compléter)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Animal Diversity Web                                (7 mars 2018) : (à compléter)
 Dexia atripes</t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dexia_(dipt%C3%A8re)</t>
+          <t>Dexia_(diptère)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Liste d'espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (8 mars 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (8 mars 2023) :
 Dexia rustica (Fabricius, 1775)
 Dexia vacua (Fallen, 1817)</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dexia_(dipt%C3%A8re)</t>
+          <t>Dexia_(diptère)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 mars 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 mars 2018) :
 Asbellopsis Townsend, 1928
 Barydexia Townsend, 1928
 Dexilla Westwood, 1840
